--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bgn-Tlr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bgn-Tlr2.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>51.10859366666667</v>
+        <v>78.88508866666666</v>
       </c>
       <c r="H2">
-        <v>153.325781</v>
+        <v>236.655266</v>
       </c>
       <c r="I2">
-        <v>0.02866730932766026</v>
+        <v>0.04671449441202816</v>
       </c>
       <c r="J2">
-        <v>0.02866730932766026</v>
+        <v>0.04671449441202816</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9838473333333333</v>
+        <v>2.230555333333334</v>
       </c>
       <c r="N2">
-        <v>2.951542</v>
+        <v>6.691666000000001</v>
       </c>
       <c r="O2">
-        <v>0.003038730003995881</v>
+        <v>0.007175805467801315</v>
       </c>
       <c r="P2">
-        <v>0.00303873000399588</v>
+        <v>0.007175805467801315</v>
       </c>
       <c r="Q2">
-        <v>50.28305358936689</v>
+        <v>175.9575552459062</v>
       </c>
       <c r="R2">
-        <v>452.547482304302</v>
+        <v>1583.617997213156</v>
       </c>
       <c r="S2">
-        <v>8.71122129877922E-05</v>
+        <v>0.0003352141244274056</v>
       </c>
       <c r="T2">
-        <v>8.711221298779219E-05</v>
+        <v>0.0003352141244274056</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>51.10859366666667</v>
+        <v>78.88508866666666</v>
       </c>
       <c r="H3">
-        <v>153.325781</v>
+        <v>236.655266</v>
       </c>
       <c r="I3">
-        <v>0.02866730932766026</v>
+        <v>0.04671449441202816</v>
       </c>
       <c r="J3">
-        <v>0.02866730932766026</v>
+        <v>0.04671449441202816</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>5.3792</v>
       </c>
       <c r="O3">
-        <v>0.005538100571665469</v>
+        <v>0.005768383056236941</v>
       </c>
       <c r="P3">
-        <v>0.005538100571665469</v>
+        <v>0.005768383056236942</v>
       </c>
       <c r="Q3">
-        <v>91.64111568391111</v>
+        <v>141.4462229852444</v>
       </c>
       <c r="R3">
-        <v>824.7700411552</v>
+        <v>1273.0160068672</v>
       </c>
       <c r="S3">
-        <v>0.0001587624421756261</v>
+        <v>0.0002694670980470185</v>
       </c>
       <c r="T3">
-        <v>0.0001587624421756261</v>
+        <v>0.0002694670980470185</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>51.10859366666667</v>
+        <v>78.88508866666666</v>
       </c>
       <c r="H4">
-        <v>153.325781</v>
+        <v>236.655266</v>
       </c>
       <c r="I4">
-        <v>0.02866730932766026</v>
+        <v>0.04671449441202816</v>
       </c>
       <c r="J4">
-        <v>0.02866730932766026</v>
+        <v>0.04671449441202816</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>77.85225733333334</v>
+        <v>107.8776346666667</v>
       </c>
       <c r="N4">
-        <v>233.556772</v>
+        <v>323.632904</v>
       </c>
       <c r="O4">
-        <v>0.2404559957855335</v>
+        <v>0.3470476204406522</v>
       </c>
       <c r="P4">
-        <v>0.2404559957855335</v>
+        <v>0.3470476204406522</v>
       </c>
       <c r="Q4">
-        <v>3978.919386082104</v>
+        <v>8509.936775830272</v>
       </c>
       <c r="R4">
-        <v>35810.27447473894</v>
+        <v>76589.43098247246</v>
       </c>
       <c r="S4">
-        <v>0.00689322641087446</v>
+        <v>0.01621215412578252</v>
       </c>
       <c r="T4">
-        <v>0.006893226410874459</v>
+        <v>0.01621215412578252</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>51.10859366666667</v>
+        <v>78.88508866666666</v>
       </c>
       <c r="H5">
-        <v>153.325781</v>
+        <v>236.655266</v>
       </c>
       <c r="I5">
-        <v>0.02866730932766026</v>
+        <v>0.04671449441202816</v>
       </c>
       <c r="J5">
-        <v>0.02866730932766026</v>
+        <v>0.04671449441202816</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>150.2174506666667</v>
+        <v>155.295863</v>
       </c>
       <c r="N5">
-        <v>450.652352</v>
+        <v>465.887589</v>
       </c>
       <c r="O5">
-        <v>0.4639645390083262</v>
+        <v>0.4995943773235202</v>
       </c>
       <c r="P5">
-        <v>0.4639645390083262</v>
+        <v>0.4995943773235202</v>
       </c>
       <c r="Q5">
-        <v>7677.402647765214</v>
+        <v>12250.52792232152</v>
       </c>
       <c r="R5">
-        <v>69096.62382988691</v>
+        <v>110254.7513008937</v>
       </c>
       <c r="S5">
-        <v>0.01330061495681698</v>
+        <v>0.02333829874776027</v>
       </c>
       <c r="T5">
-        <v>0.01330061495681698</v>
+        <v>0.02333829874776027</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>51.10859366666667</v>
+        <v>78.88508866666666</v>
       </c>
       <c r="H6">
-        <v>153.325781</v>
+        <v>236.655266</v>
       </c>
       <c r="I6">
-        <v>0.02866730932766026</v>
+        <v>0.04671449441202816</v>
       </c>
       <c r="J6">
-        <v>0.02866730932766026</v>
+        <v>0.04671449441202816</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>92.92262766666666</v>
+        <v>43.64677700000001</v>
       </c>
       <c r="N6">
-        <v>278.767883</v>
+        <v>130.940331</v>
       </c>
       <c r="O6">
-        <v>0.287002634630479</v>
+        <v>0.1404138137117893</v>
       </c>
       <c r="P6">
-        <v>0.287002634630479</v>
+        <v>0.1404138137117893</v>
       </c>
       <c r="Q6">
-        <v>4749.144819854625</v>
+        <v>3443.079873659228</v>
       </c>
       <c r="R6">
-        <v>42742.30337869162</v>
+        <v>30987.71886293305</v>
       </c>
       <c r="S6">
-        <v>0.008227593304805398</v>
+        <v>0.006559360316010942</v>
       </c>
       <c r="T6">
-        <v>0.008227593304805398</v>
+        <v>0.006559360316010942</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,40 +859,40 @@
         <v>4569.62915</v>
       </c>
       <c r="I7">
-        <v>0.854383206146807</v>
+        <v>0.9020205592750933</v>
       </c>
       <c r="J7">
-        <v>0.854383206146807</v>
+        <v>0.9020205592750933</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9838473333333333</v>
+        <v>2.230555333333334</v>
       </c>
       <c r="N7">
-        <v>2.951542</v>
+        <v>6.691666000000001</v>
       </c>
       <c r="O7">
-        <v>0.003038730003995881</v>
+        <v>0.007175805467801315</v>
       </c>
       <c r="P7">
-        <v>0.00303873000399588</v>
+        <v>0.007175805467801315</v>
       </c>
       <c r="Q7">
-        <v>1498.605817849922</v>
+        <v>3397.603557295989</v>
       </c>
       <c r="R7">
-        <v>13487.4523606493</v>
+        <v>30578.4320156639</v>
       </c>
       <c r="S7">
-        <v>0.0025962398834285</v>
+        <v>0.006472724061315414</v>
       </c>
       <c r="T7">
-        <v>0.0025962398834285</v>
+        <v>0.006472724061315414</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>4569.62915</v>
       </c>
       <c r="I8">
-        <v>0.854383206146807</v>
+        <v>0.9020205592750933</v>
       </c>
       <c r="J8">
-        <v>0.854383206146807</v>
+        <v>0.9020205592750933</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -939,10 +939,10 @@
         <v>5.3792</v>
       </c>
       <c r="O8">
-        <v>0.005538100571665469</v>
+        <v>0.005768383056236941</v>
       </c>
       <c r="P8">
-        <v>0.005538100571665469</v>
+        <v>0.005768383056236942</v>
       </c>
       <c r="Q8">
         <v>2731.216569297777</v>
@@ -951,10 +951,10 @@
         <v>24580.94912368</v>
       </c>
       <c r="S8">
-        <v>0.004731660122383008</v>
+        <v>0.005203200110499817</v>
       </c>
       <c r="T8">
-        <v>0.004731660122383008</v>
+        <v>0.005203200110499817</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>4569.62915</v>
       </c>
       <c r="I9">
-        <v>0.854383206146807</v>
+        <v>0.9020205592750933</v>
       </c>
       <c r="J9">
-        <v>0.854383206146807</v>
+        <v>0.9020205592750933</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>77.85225733333334</v>
+        <v>107.8776346666667</v>
       </c>
       <c r="N9">
-        <v>233.556772</v>
+        <v>323.632904</v>
       </c>
       <c r="O9">
-        <v>0.2404559957855335</v>
+        <v>0.3470476204406522</v>
       </c>
       <c r="P9">
-        <v>0.2404559957855335</v>
+        <v>0.3470476204406522</v>
       </c>
       <c r="Q9">
-        <v>118585.3148345671</v>
+        <v>164320.2613352835</v>
       </c>
       <c r="R9">
-        <v>1067267.833511104</v>
+        <v>1478882.352017551</v>
       </c>
       <c r="S9">
-        <v>0.2054415646164672</v>
+        <v>0.3130440886849674</v>
       </c>
       <c r="T9">
-        <v>0.2054415646164672</v>
+        <v>0.3130440886849674</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>4569.62915</v>
       </c>
       <c r="I10">
-        <v>0.854383206146807</v>
+        <v>0.9020205592750933</v>
       </c>
       <c r="J10">
-        <v>0.854383206146807</v>
+        <v>0.9020205592750933</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>150.2174506666667</v>
+        <v>155.295863</v>
       </c>
       <c r="N10">
-        <v>450.652352</v>
+        <v>465.887589</v>
       </c>
       <c r="O10">
-        <v>0.4639645390083262</v>
+        <v>0.4995943773235202</v>
       </c>
       <c r="P10">
-        <v>0.4639645390083262</v>
+        <v>0.4995943773235202</v>
       </c>
       <c r="Q10">
-        <v>228812.6804683623</v>
+        <v>236548.1674797355</v>
       </c>
       <c r="R10">
-        <v>2059314.124215261</v>
+        <v>2128933.507317619</v>
       </c>
       <c r="S10">
-        <v>0.3964035103763591</v>
+        <v>0.4506443996440537</v>
       </c>
       <c r="T10">
-        <v>0.396403510376359</v>
+        <v>0.4506443996440537</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>4569.62915</v>
       </c>
       <c r="I11">
-        <v>0.854383206146807</v>
+        <v>0.9020205592750933</v>
       </c>
       <c r="J11">
-        <v>0.854383206146807</v>
+        <v>0.9020205592750933</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>92.92262766666666</v>
+        <v>43.64677700000001</v>
       </c>
       <c r="N11">
-        <v>278.767883</v>
+        <v>130.940331</v>
       </c>
       <c r="O11">
-        <v>0.287002634630479</v>
+        <v>0.1404138137117893</v>
       </c>
       <c r="P11">
-        <v>0.287002634630479</v>
+        <v>0.1404138137117893</v>
       </c>
       <c r="Q11">
-        <v>141540.6493600655</v>
+        <v>66483.19482758318</v>
       </c>
       <c r="R11">
-        <v>1273865.844240589</v>
+        <v>598348.7534482487</v>
       </c>
       <c r="S11">
-        <v>0.2452102311481693</v>
+        <v>0.1266561467742569</v>
       </c>
       <c r="T11">
-        <v>0.2452102311481693</v>
+        <v>0.1266561467742569</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>1.839165666666667</v>
+        <v>0.1718613333333333</v>
       </c>
       <c r="H12">
-        <v>5.517497000000001</v>
+        <v>0.515584</v>
       </c>
       <c r="I12">
-        <v>0.00103160598421108</v>
+        <v>0.0001017735472107818</v>
       </c>
       <c r="J12">
-        <v>0.00103160598421108</v>
+        <v>0.0001017735472107818</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.9838473333333333</v>
+        <v>2.230555333333334</v>
       </c>
       <c r="N12">
-        <v>2.951542</v>
+        <v>6.691666000000001</v>
       </c>
       <c r="O12">
-        <v>0.003038730003995881</v>
+        <v>0.007175805467801315</v>
       </c>
       <c r="P12">
-        <v>0.00303873000399588</v>
+        <v>0.007175805467801315</v>
       </c>
       <c r="Q12">
-        <v>1.809458236708222</v>
+        <v>0.3833462136604445</v>
       </c>
       <c r="R12">
-        <v>16.285124130374</v>
+        <v>3.450115922944001</v>
       </c>
       <c r="S12">
-        <v>3.134772056523909E-06</v>
+        <v>7.303071765526633E-07</v>
       </c>
       <c r="T12">
-        <v>3.134772056523908E-06</v>
+        <v>7.303071765526634E-07</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,22 +1219,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>1.839165666666667</v>
+        <v>0.1718613333333333</v>
       </c>
       <c r="H13">
-        <v>5.517497000000001</v>
+        <v>0.515584</v>
       </c>
       <c r="I13">
-        <v>0.00103160598421108</v>
+        <v>0.0001017735472107818</v>
       </c>
       <c r="J13">
-        <v>0.00103160598421108</v>
+        <v>0.0001017735472107818</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1249,22 +1249,22 @@
         <v>5.3792</v>
       </c>
       <c r="O13">
-        <v>0.005538100571665469</v>
+        <v>0.005768383056236941</v>
       </c>
       <c r="P13">
-        <v>0.005538100571665469</v>
+        <v>0.005768383056236942</v>
       </c>
       <c r="Q13">
-        <v>3.297746651377778</v>
+        <v>0.3081588280888889</v>
       </c>
       <c r="R13">
-        <v>29.6797198624</v>
+        <v>2.7734294528</v>
       </c>
       <c r="S13">
-        <v>5.7131376908929E-06</v>
+        <v>5.870688053038041E-07</v>
       </c>
       <c r="T13">
-        <v>5.713137690892899E-06</v>
+        <v>5.870688053038042E-07</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>1.839165666666667</v>
+        <v>0.1718613333333333</v>
       </c>
       <c r="H14">
-        <v>5.517497000000001</v>
+        <v>0.515584</v>
       </c>
       <c r="I14">
-        <v>0.00103160598421108</v>
+        <v>0.0001017735472107818</v>
       </c>
       <c r="J14">
-        <v>0.00103160598421108</v>
+        <v>0.0001017735472107818</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>77.85225733333334</v>
+        <v>107.8776346666667</v>
       </c>
       <c r="N14">
-        <v>233.556772</v>
+        <v>323.632904</v>
       </c>
       <c r="O14">
-        <v>0.2404559957855335</v>
+        <v>0.3470476204406522</v>
       </c>
       <c r="P14">
-        <v>0.2404559957855335</v>
+        <v>0.3470476204406522</v>
       </c>
       <c r="Q14">
-        <v>143.1831987599649</v>
+        <v>18.53999413065955</v>
       </c>
       <c r="R14">
-        <v>1288.648788839684</v>
+        <v>166.859947175936</v>
       </c>
       <c r="S14">
-        <v>0.0002480558441917906</v>
+        <v>3.53202673833062E-05</v>
       </c>
       <c r="T14">
-        <v>0.0002480558441917905</v>
+        <v>3.532026738330621E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>24</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>1.839165666666667</v>
+        <v>0.1718613333333333</v>
       </c>
       <c r="H15">
-        <v>5.517497000000001</v>
+        <v>0.515584</v>
       </c>
       <c r="I15">
-        <v>0.00103160598421108</v>
+        <v>0.0001017735472107818</v>
       </c>
       <c r="J15">
-        <v>0.00103160598421108</v>
+        <v>0.0001017735472107818</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>150.2174506666667</v>
+        <v>155.295863</v>
       </c>
       <c r="N15">
-        <v>450.652352</v>
+        <v>465.887589</v>
       </c>
       <c r="O15">
-        <v>0.4639645390083262</v>
+        <v>0.4995943773235202</v>
       </c>
       <c r="P15">
-        <v>0.4639645390083262</v>
+        <v>0.4995943773235202</v>
       </c>
       <c r="Q15">
-        <v>276.2747778003272</v>
+        <v>26.68935407633067</v>
       </c>
       <c r="R15">
-        <v>2486.473000202944</v>
+        <v>240.204186686976</v>
       </c>
       <c r="S15">
-        <v>0.0004786285949027244</v>
+        <v>5.084549194677642E-05</v>
       </c>
       <c r="T15">
-        <v>0.0004786285949027242</v>
+        <v>5.084549194677643E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>25</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>1.839165666666667</v>
+        <v>0.1718613333333333</v>
       </c>
       <c r="H16">
-        <v>5.517497000000001</v>
+        <v>0.515584</v>
       </c>
       <c r="I16">
-        <v>0.00103160598421108</v>
+        <v>0.0001017735472107818</v>
       </c>
       <c r="J16">
-        <v>0.00103160598421108</v>
+        <v>0.0001017735472107818</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>92.92262766666666</v>
+        <v>43.64677700000001</v>
       </c>
       <c r="N16">
-        <v>278.767883</v>
+        <v>130.940331</v>
       </c>
       <c r="O16">
-        <v>0.287002634630479</v>
+        <v>0.1404138137117893</v>
       </c>
       <c r="P16">
-        <v>0.287002634630479</v>
+        <v>0.1404138137117893</v>
       </c>
       <c r="Q16">
-        <v>170.9001064609834</v>
+        <v>7.501193290922668</v>
       </c>
       <c r="R16">
-        <v>1538.100958148851</v>
+        <v>67.51073961830402</v>
       </c>
       <c r="S16">
-        <v>0.0002960736353691482</v>
+        <v>1.429041189884271E-05</v>
       </c>
       <c r="T16">
-        <v>0.0002960736353691482</v>
+        <v>1.429041189884271E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,46 +1473,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>196.5440926666667</v>
+        <v>84.46225600000001</v>
       </c>
       <c r="H17">
-        <v>589.632278</v>
+        <v>253.386768</v>
       </c>
       <c r="I17">
-        <v>0.1102435010782627</v>
+        <v>0.05001720417164889</v>
       </c>
       <c r="J17">
-        <v>0.1102435010782627</v>
+        <v>0.05001720417164889</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.9838473333333333</v>
+        <v>2.230555333333334</v>
       </c>
       <c r="N17">
-        <v>2.951542</v>
+        <v>6.691666000000001</v>
       </c>
       <c r="O17">
-        <v>0.003038730003995881</v>
+        <v>0.007175805467801315</v>
       </c>
       <c r="P17">
-        <v>0.00303873000399588</v>
+        <v>0.007175805467801315</v>
       </c>
       <c r="Q17">
-        <v>193.3693814525195</v>
+        <v>188.3977355861654</v>
       </c>
       <c r="R17">
-        <v>1740.324433072676</v>
+        <v>1695.579620275488</v>
       </c>
       <c r="S17">
-        <v>0.0003350002344720689</v>
+        <v>0.0003589137271790528</v>
       </c>
       <c r="T17">
-        <v>0.0003350002344720689</v>
+        <v>0.0003589137271790528</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>196.5440926666667</v>
+        <v>84.46225600000001</v>
       </c>
       <c r="H18">
-        <v>589.632278</v>
+        <v>253.386768</v>
       </c>
       <c r="I18">
-        <v>0.1102435010782627</v>
+        <v>0.05001720417164889</v>
       </c>
       <c r="J18">
-        <v>0.1102435010782627</v>
+        <v>0.05001720417164889</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1559,22 +1559,22 @@
         <v>5.3792</v>
       </c>
       <c r="O18">
-        <v>0.005538100571665469</v>
+        <v>0.005768383056236941</v>
       </c>
       <c r="P18">
-        <v>0.005538100571665469</v>
+        <v>0.005768383056236942</v>
       </c>
       <c r="Q18">
-        <v>352.4166610908445</v>
+        <v>151.4464558250667</v>
       </c>
       <c r="R18">
-        <v>3171.7499498176</v>
+        <v>1363.0181024256</v>
       </c>
       <c r="S18">
-        <v>0.0006105395963439292</v>
+        <v>0.000288518393064083</v>
       </c>
       <c r="T18">
-        <v>0.0006105395963439292</v>
+        <v>0.0002885183930640831</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>196.5440926666667</v>
+        <v>84.46225600000001</v>
       </c>
       <c r="H19">
-        <v>589.632278</v>
+        <v>253.386768</v>
       </c>
       <c r="I19">
-        <v>0.1102435010782627</v>
+        <v>0.05001720417164889</v>
       </c>
       <c r="J19">
-        <v>0.1102435010782627</v>
+        <v>0.05001720417164889</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>77.85225733333334</v>
+        <v>107.8776346666667</v>
       </c>
       <c r="N19">
-        <v>233.556772</v>
+        <v>323.632904</v>
       </c>
       <c r="O19">
-        <v>0.2404559957855335</v>
+        <v>0.3470476204406522</v>
       </c>
       <c r="P19">
-        <v>0.2404559957855335</v>
+        <v>0.3470476204406522</v>
       </c>
       <c r="Q19">
-        <v>15301.40127963185</v>
+        <v>9111.588395890476</v>
       </c>
       <c r="R19">
-        <v>137712.6115166867</v>
+        <v>82004.29556301428</v>
       </c>
       <c r="S19">
-        <v>0.02650871083065718</v>
+        <v>0.01735835168886501</v>
       </c>
       <c r="T19">
-        <v>0.02650871083065718</v>
+        <v>0.01735835168886501</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>196.5440926666667</v>
+        <v>84.46225600000001</v>
       </c>
       <c r="H20">
-        <v>589.632278</v>
+        <v>253.386768</v>
       </c>
       <c r="I20">
-        <v>0.1102435010782627</v>
+        <v>0.05001720417164889</v>
       </c>
       <c r="J20">
-        <v>0.1102435010782627</v>
+        <v>0.05001720417164889</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>150.2174506666667</v>
+        <v>155.295863</v>
       </c>
       <c r="N20">
-        <v>450.652352</v>
+        <v>465.887589</v>
       </c>
       <c r="O20">
-        <v>0.4639645390083262</v>
+        <v>0.4995943773235202</v>
       </c>
       <c r="P20">
-        <v>0.4639645390083262</v>
+        <v>0.4995943773235202</v>
       </c>
       <c r="Q20">
-        <v>29524.35254397976</v>
+        <v>13116.63893644693</v>
       </c>
       <c r="R20">
-        <v>265719.1728958179</v>
+        <v>118049.7504280224</v>
       </c>
       <c r="S20">
-        <v>0.05114907515644005</v>
+        <v>0.0249883139735983</v>
       </c>
       <c r="T20">
-        <v>0.05114907515644004</v>
+        <v>0.0249883139735983</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>196.5440926666667</v>
+        <v>84.46225600000001</v>
       </c>
       <c r="H21">
-        <v>589.632278</v>
+        <v>253.386768</v>
       </c>
       <c r="I21">
-        <v>0.1102435010782627</v>
+        <v>0.05001720417164889</v>
       </c>
       <c r="J21">
-        <v>0.1102435010782627</v>
+        <v>0.05001720417164889</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>92.92262766666666</v>
+        <v>43.64677700000001</v>
       </c>
       <c r="N21">
-        <v>278.767883</v>
+        <v>130.940331</v>
       </c>
       <c r="O21">
-        <v>0.287002634630479</v>
+        <v>0.1404138137117893</v>
       </c>
       <c r="P21">
-        <v>0.287002634630479</v>
+        <v>0.1404138137117893</v>
       </c>
       <c r="Q21">
-        <v>18263.3935429475</v>
+        <v>3686.505252548913</v>
       </c>
       <c r="R21">
-        <v>164370.5418865275</v>
+        <v>33178.54727294022</v>
       </c>
       <c r="S21">
-        <v>0.03164017526034943</v>
+        <v>0.007023106388942436</v>
       </c>
       <c r="T21">
-        <v>0.03164017526034943</v>
+        <v>0.007023106388942436</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.619322333333334</v>
+        <v>1.301947666666667</v>
       </c>
       <c r="H22">
-        <v>4.857967</v>
+        <v>3.905843</v>
       </c>
       <c r="I22">
-        <v>0.0009082937114963446</v>
+        <v>0.0007709926936413885</v>
       </c>
       <c r="J22">
-        <v>0.0009082937114963446</v>
+        <v>0.0007709926936413884</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.9838473333333333</v>
+        <v>2.230555333333334</v>
       </c>
       <c r="N22">
-        <v>2.951542</v>
+        <v>6.691666000000001</v>
       </c>
       <c r="O22">
-        <v>0.003038730003995881</v>
+        <v>0.007175805467801315</v>
       </c>
       <c r="P22">
-        <v>0.00303873000399588</v>
+        <v>0.007175805467801315</v>
       </c>
       <c r="Q22">
-        <v>1.593165959457111</v>
+        <v>2.904066311604223</v>
       </c>
       <c r="R22">
-        <v>14.338493635114</v>
+        <v>26.136596804438</v>
       </c>
       <c r="S22">
-        <v>2.760059353564721E-06</v>
+        <v>5.53249358666674E-06</v>
       </c>
       <c r="T22">
-        <v>2.76005935356472E-06</v>
+        <v>5.532493586666739E-06</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.619322333333334</v>
+        <v>1.301947666666667</v>
       </c>
       <c r="H23">
-        <v>4.857967</v>
+        <v>3.905843</v>
       </c>
       <c r="I23">
-        <v>0.0009082937114963446</v>
+        <v>0.0007709926936413885</v>
       </c>
       <c r="J23">
-        <v>0.0009082937114963446</v>
+        <v>0.0007709926936413884</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1869,22 +1869,22 @@
         <v>5.3792</v>
       </c>
       <c r="O23">
-        <v>0.005538100571665469</v>
+        <v>0.005768383056236941</v>
       </c>
       <c r="P23">
-        <v>0.005538100571665469</v>
+        <v>0.005768383056236942</v>
       </c>
       <c r="Q23">
-        <v>2.903552898488889</v>
+        <v>2.334478962844444</v>
       </c>
       <c r="R23">
-        <v>26.1319760864</v>
+        <v>21.0103106656</v>
       </c>
       <c r="S23">
-        <v>5.030221922878057E-06</v>
+        <v>4.447381190483464E-06</v>
       </c>
       <c r="T23">
-        <v>5.030221922878057E-06</v>
+        <v>4.447381190483464E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.619322333333334</v>
+        <v>1.301947666666667</v>
       </c>
       <c r="H24">
-        <v>4.857967</v>
+        <v>3.905843</v>
       </c>
       <c r="I24">
-        <v>0.0009082937114963446</v>
+        <v>0.0007709926936413885</v>
       </c>
       <c r="J24">
-        <v>0.0009082937114963446</v>
+        <v>0.0007709926936413884</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>77.85225733333334</v>
+        <v>107.8776346666667</v>
       </c>
       <c r="N24">
-        <v>233.556772</v>
+        <v>323.632904</v>
       </c>
       <c r="O24">
-        <v>0.2404559957855335</v>
+        <v>0.3470476204406522</v>
       </c>
       <c r="P24">
-        <v>0.2404559957855335</v>
+        <v>0.3470476204406522</v>
       </c>
       <c r="Q24">
-        <v>126.0678990002805</v>
+        <v>140.4510347397858</v>
       </c>
       <c r="R24">
-        <v>1134.611091002524</v>
+        <v>1264.059312658072</v>
       </c>
       <c r="S24">
-        <v>0.0002184046688635916</v>
+        <v>0.0002675711797053727</v>
       </c>
       <c r="T24">
-        <v>0.0002184046688635916</v>
+        <v>0.0002675711797053726</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.619322333333334</v>
+        <v>1.301947666666667</v>
       </c>
       <c r="H25">
-        <v>4.857967</v>
+        <v>3.905843</v>
       </c>
       <c r="I25">
-        <v>0.0009082937114963446</v>
+        <v>0.0007709926936413885</v>
       </c>
       <c r="J25">
-        <v>0.0009082937114963446</v>
+        <v>0.0007709926936413884</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>150.2174506666667</v>
+        <v>155.295863</v>
       </c>
       <c r="N25">
-        <v>450.652352</v>
+        <v>465.887589</v>
       </c>
       <c r="O25">
-        <v>0.4639645390083262</v>
+        <v>0.4995943773235202</v>
       </c>
       <c r="P25">
-        <v>0.4639645390083262</v>
+        <v>0.4995943773235202</v>
       </c>
       <c r="Q25">
-        <v>243.2504727209316</v>
+        <v>202.1870864758364</v>
       </c>
       <c r="R25">
-        <v>2189.254254488384</v>
+        <v>1819.683778282527</v>
       </c>
       <c r="S25">
-        <v>0.0004214160731385632</v>
+        <v>0.0003851836147007531</v>
       </c>
       <c r="T25">
-        <v>0.0004214160731385632</v>
+        <v>0.0003851836147007531</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.619322333333334</v>
+        <v>1.301947666666667</v>
       </c>
       <c r="H26">
-        <v>4.857967</v>
+        <v>3.905843</v>
       </c>
       <c r="I26">
-        <v>0.0009082937114963446</v>
+        <v>0.0007709926936413885</v>
       </c>
       <c r="J26">
-        <v>0.0009082937114963446</v>
+        <v>0.0007709926936413884</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>92.92262766666666</v>
+        <v>43.64677700000001</v>
       </c>
       <c r="N26">
-        <v>278.767883</v>
+        <v>130.940331</v>
       </c>
       <c r="O26">
-        <v>0.287002634630479</v>
+        <v>0.1404138137117893</v>
       </c>
       <c r="P26">
-        <v>0.287002634630479</v>
+        <v>0.1404138137117893</v>
       </c>
       <c r="Q26">
-        <v>150.4716862526512</v>
+        <v>56.82581947267035</v>
       </c>
       <c r="R26">
-        <v>1354.245176273861</v>
+        <v>511.432375254033</v>
       </c>
       <c r="S26">
-        <v>0.0002606826882177471</v>
+        <v>0.0001082580244581125</v>
       </c>
       <c r="T26">
-        <v>0.0002606826882177471</v>
+        <v>0.0001082580244581125</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,46 +2093,46 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>8.497059666666667</v>
+        <v>0.6332083333333334</v>
       </c>
       <c r="H27">
-        <v>25.491179</v>
+        <v>1.899625</v>
       </c>
       <c r="I27">
-        <v>0.004766083751562676</v>
+        <v>0.0003749759003775939</v>
       </c>
       <c r="J27">
-        <v>0.004766083751562675</v>
+        <v>0.0003749759003775939</v>
       </c>
       <c r="K27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L27">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M27">
-        <v>0.9838473333333333</v>
+        <v>2.230555333333334</v>
       </c>
       <c r="N27">
-        <v>2.951542</v>
+        <v>6.691666000000001</v>
       </c>
       <c r="O27">
-        <v>0.003038730003995881</v>
+        <v>0.007175805467801315</v>
       </c>
       <c r="P27">
-        <v>0.00303873000399588</v>
+        <v>0.007175805467801315</v>
       </c>
       <c r="Q27">
-        <v>8.359809494224223</v>
+        <v>1.412406225027778</v>
       </c>
       <c r="R27">
-        <v>75.23828544801799</v>
+        <v>12.71165602525</v>
       </c>
       <c r="S27">
-        <v>1.448284169743075E-05</v>
+        <v>2.690754116223259E-06</v>
       </c>
       <c r="T27">
-        <v>1.448284169743075E-05</v>
+        <v>2.690754116223259E-06</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>8.497059666666667</v>
+        <v>0.6332083333333334</v>
       </c>
       <c r="H28">
-        <v>25.491179</v>
+        <v>1.899625</v>
       </c>
       <c r="I28">
-        <v>0.004766083751562676</v>
+        <v>0.0003749759003775939</v>
       </c>
       <c r="J28">
-        <v>0.004766083751562675</v>
+        <v>0.0003749759003775939</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2179,22 +2179,22 @@
         <v>5.3792</v>
       </c>
       <c r="O28">
-        <v>0.005538100571665469</v>
+        <v>0.005768383056236941</v>
       </c>
       <c r="P28">
-        <v>0.005538100571665469</v>
+        <v>0.005768383056236942</v>
       </c>
       <c r="Q28">
-        <v>15.23579445297778</v>
+        <v>1.135384755555556</v>
       </c>
       <c r="R28">
-        <v>137.1221500768</v>
+        <v>10.2184628</v>
       </c>
       <c r="S28">
-        <v>2.639505114913476E-05</v>
+        <v>2.163004630235304E-06</v>
       </c>
       <c r="T28">
-        <v>2.639505114913475E-05</v>
+        <v>2.163004630235304E-06</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>8.497059666666667</v>
+        <v>0.6332083333333334</v>
       </c>
       <c r="H29">
-        <v>25.491179</v>
+        <v>1.899625</v>
       </c>
       <c r="I29">
-        <v>0.004766083751562676</v>
+        <v>0.0003749759003775939</v>
       </c>
       <c r="J29">
-        <v>0.004766083751562675</v>
+        <v>0.0003749759003775939</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>77.85225733333334</v>
+        <v>107.8776346666667</v>
       </c>
       <c r="N29">
-        <v>233.556772</v>
+        <v>323.632904</v>
       </c>
       <c r="O29">
-        <v>0.2404559957855335</v>
+        <v>0.3470476204406522</v>
       </c>
       <c r="P29">
-        <v>0.2404559957855335</v>
+        <v>0.3470476204406522</v>
       </c>
       <c r="Q29">
-        <v>661.515275746021</v>
+        <v>68.30901725122223</v>
       </c>
       <c r="R29">
-        <v>5953.637481714189</v>
+        <v>614.781155261</v>
       </c>
       <c r="S29">
-        <v>0.001146033414479254</v>
+        <v>0.000130134493948635</v>
       </c>
       <c r="T29">
-        <v>0.001146033414479254</v>
+        <v>0.000130134493948635</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>8.497059666666667</v>
+        <v>0.6332083333333334</v>
       </c>
       <c r="H30">
-        <v>25.491179</v>
+        <v>1.899625</v>
       </c>
       <c r="I30">
-        <v>0.004766083751562676</v>
+        <v>0.0003749759003775939</v>
       </c>
       <c r="J30">
-        <v>0.004766083751562675</v>
+        <v>0.0003749759003775939</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>150.2174506666667</v>
+        <v>155.295863</v>
       </c>
       <c r="N30">
-        <v>450.652352</v>
+        <v>465.887589</v>
       </c>
       <c r="O30">
-        <v>0.4639645390083262</v>
+        <v>0.4995943773235202</v>
       </c>
       <c r="P30">
-        <v>0.4639645390083262</v>
+        <v>0.4995943773235202</v>
       </c>
       <c r="Q30">
-        <v>1276.406641289223</v>
+        <v>98.33463458379168</v>
       </c>
       <c r="R30">
-        <v>11487.65977160301</v>
+        <v>885.0117112541252</v>
       </c>
       <c r="S30">
-        <v>0.002211293850668851</v>
+        <v>0.0001873358514604704</v>
       </c>
       <c r="T30">
-        <v>0.00221129385066885</v>
+        <v>0.0001873358514604704</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>8.497059666666667</v>
+        <v>0.6332083333333334</v>
       </c>
       <c r="H31">
-        <v>25.491179</v>
+        <v>1.899625</v>
       </c>
       <c r="I31">
-        <v>0.004766083751562676</v>
+        <v>0.0003749759003775939</v>
       </c>
       <c r="J31">
-        <v>0.004766083751562675</v>
+        <v>0.0003749759003775939</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>92.92262766666666</v>
+        <v>43.64677700000001</v>
       </c>
       <c r="N31">
-        <v>278.767883</v>
+        <v>130.940331</v>
       </c>
       <c r="O31">
-        <v>0.287002634630479</v>
+        <v>0.1404138137117893</v>
       </c>
       <c r="P31">
-        <v>0.287002634630479</v>
+        <v>0.1404138137117893</v>
       </c>
       <c r="Q31">
-        <v>789.5691116671173</v>
+        <v>27.63750291954167</v>
       </c>
       <c r="R31">
-        <v>7106.122005004057</v>
+        <v>248.737526275875</v>
       </c>
       <c r="S31">
-        <v>0.001367878593568005</v>
+        <v>5.265179622202993E-05</v>
       </c>
       <c r="T31">
-        <v>0.001367878593568005</v>
+        <v>5.265179622202993E-05</v>
       </c>
     </row>
   </sheetData>
